--- a/ig/ch-elm/CodeSystem-ch-elm-foph-code-reserve.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-code-reserve.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/CodeSystem-ch-elm-foph-code-reserve.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-code-reserve.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Concepts" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -29,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,6 +121,54 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>EP-100700-4</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder</t>
+  </si>
+  <si>
+    <t>EP-100100-7</t>
+  </si>
+  <si>
+    <t>EP-101000-8</t>
+  </si>
+  <si>
+    <t>EP-100500-8</t>
+  </si>
+  <si>
+    <t>EP-100200-5</t>
+  </si>
+  <si>
+    <t>EP-100900-0</t>
+  </si>
+  <si>
+    <t>EP-100300-3</t>
+  </si>
+  <si>
+    <t>EP-100800-2</t>
+  </si>
+  <si>
+    <t>EP-100600-6</t>
+  </si>
+  <si>
+    <t>EP-100400-1</t>
   </si>
 </sst>
 </file>
@@ -428,4 +477,151 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ig/ch-elm/CodeSystem-ch-elm-foph-code-reserve.xlsx
+++ b/ig/ch-elm/CodeSystem-ch-elm-foph-code-reserve.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,34 +141,61 @@
     <t>EP-100700-4</t>
   </si>
   <si>
-    <t>FOPH emerging pathogen placeholder</t>
+    <t>FOPH emerging pathogen placeholder 7</t>
   </si>
   <si>
     <t>EP-100100-7</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 1</t>
+  </si>
+  <si>
     <t>EP-101000-8</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 10</t>
+  </si>
+  <si>
     <t>EP-100500-8</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 5</t>
+  </si>
+  <si>
     <t>EP-100200-5</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 2</t>
+  </si>
+  <si>
     <t>EP-100900-0</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 9</t>
+  </si>
+  <si>
     <t>EP-100300-3</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 3</t>
+  </si>
+  <si>
     <t>EP-100800-2</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 8</t>
+  </si>
+  <si>
     <t>EP-100600-6</t>
   </si>
   <si>
+    <t>FOPH emerging pathogen placeholder 6</t>
+  </si>
+  <si>
     <t>EP-100400-1</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 4</t>
   </si>
 </sst>
 </file>
@@ -521,7 +548,7 @@
         <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -530,10 +557,10 @@
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -542,10 +569,10 @@
         <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -554,10 +581,10 @@
         <v>40</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -566,10 +593,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -578,10 +605,10 @@
         <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -590,10 +617,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -602,10 +629,10 @@
         <v>40</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -614,10 +641,10 @@
         <v>40</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2"/>
     </row>
